--- a/Data/Commodore 64 Breadbin/250407-22222/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/250407-22222/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407-22222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D28D3D2-A355-45D4-A15D-F9E456B08D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB7275-E532-473B-9ED7-A9BC535BB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId2"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId3"/>
-    <sheet name="Links" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Components" sheetId="1" r:id="rId2"/>
+    <sheet name="Trivia" sheetId="2" r:id="rId3"/>
+    <sheet name="Troubleshooting" sheetId="3" r:id="rId4"/>
+    <sheet name="Links" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>CIA 1</t>
   </si>
@@ -756,11 +757,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,249 +835,220 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6526</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6526</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8701</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7406</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6526</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6526</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8701</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7406</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1">
-        <v>123</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1032,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1044,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1056,7 +1082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
   <dimension ref="A1"/>
   <sheetViews>
